--- a/biology/Botanique/Corethraceae/Corethraceae.xlsx
+++ b/biology/Botanique/Corethraceae/Corethraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corethraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Corethrales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Corethron, dérivé du grec corethr-, « balais ; brosse », en référence à la morphologie de la diatomée laquelle est couverte d'épines.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Corethron se présente sous la forme de cellules solitaires (rarement en filaments courts), généralement observables qu'en « vue de ceinture ». Ces cellules de forme cylindrique ont des valves en forme de dôme et de nombreux plastes discoïdes.
-L'hétérovalvie (différence entre les valves) est complexe et explique la variété déconcertante des « phases » illustrées par Hendey en 1937[1]. Une des valves est bombée avec un bord large, retroussé et festonné.
+L'hétérovalvie (différence entre les valves) est complexe et explique la variété déconcertante des « phases » illustrées par Hendey en 1937. Une des valves est bombée avec un bord large, retroussé et festonné.
 À l'intérieur de ce bord se trouvent des « douilles » profondes avec des projections en forme de cheville de chaque côté. Dans ces douilles sont insérées les bases de longues épines effilées et dentées qui ont une section en forme de « T », dont le haut est adjacent au bord de la valve. Des filaments ressemblant à des cheveux se trouvent souvent sur cette valve.
 Dans la cellule intacte, les épines de la valve pointent loin de la ceinture. L'autre valve a un anneau d'épines de deux types :
 des épines similaires à celles de la première valve décrite, alternant avec des épines plus courtes hérissées de pointes en forme de griffes ; il existe des versions « droites » et « gauches » de ces épines. Près de leur base, on observe une expansion formant une lame en forme de rame avant que la « colonne vertébrale » n'entre dans la douille.
@@ -583,9 +599,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corethron est un genre planctonique marin cosmopolite présent en grand nombre, en particulier autour de l'Antarctique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corethron est un genre planctonique marin cosmopolite présent en grand nombre, en particulier autour de l'Antarctique.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 juin 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 juin 2022) :
 Corethron Castracane, 1886</t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Corethraceae Lebour, 1930[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Corethraceae Lebour, 1930.
 </t>
         </is>
       </c>
